--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376323.108700931</v>
+        <v>3373946.481753565</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8063697.700678562</v>
+        <v>8063697.700678563</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>258.374635102176</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61.67661693724187</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>56.30830983498247</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>53.21861268866083</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882139</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>61.65107118784943</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,16 +1108,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473612</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>227.7569603098104</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.5971804138451</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472227</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.73110067847</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560547</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>8.168913835720646</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>114.2935157990533</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.6926686226139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881296</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>120.8326485140805</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>124.1997375316454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>125.3789405564517</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.5697888787481</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>73.98898794535445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>39.39795577638955</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2811815126426057</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1158.553337363322</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>789.5908204229102</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>789.5908204229102</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
-        <v>789.5908204229102</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>378.6049156333026</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.153177427444</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,16 +4410,16 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835.1063603656604</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="C4" t="n">
-        <v>666.1701774377535</v>
+        <v>276.110331901121</v>
       </c>
       <c r="D4" t="n">
-        <v>516.0535380254178</v>
+        <v>276.110331901121</v>
       </c>
       <c r="E4" t="n">
-        <v>368.1404444430246</v>
+        <v>276.110331901121</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>276.110331901121</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>108.1238672093995</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.744376093917</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.7548251959</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.7548251959</v>
+        <v>445.0465148290278</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.2894267190549</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>440.2894267190549</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>440.2894267190549</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1590.494357020068</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1217.028598758988</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>826.8892667831767</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>683.7982798220356</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>514.8620968941287</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1574.172310793841</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1377.543562953702</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1154.565082148438</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>865.4467446522754</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>865.4467446522754</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>865.4467446522754</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>865.4467446522754</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>865.4467446522754</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656473</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180658</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495373</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1468.399656105702</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485134</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426265</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2902967703778</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703778</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359457</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159268</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408905</v>
@@ -5428,10 +5428,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.469384076044</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.867919098985</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797142</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961526</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.15426255076</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.063992790047</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307826</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028758</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>672.69086739054</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>524.7777738081469</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,19 +6309,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1055.185257670615</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1236.833722500854</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397182</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.368993063877</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7251,16 +7251,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,25 +7430,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591808</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1056.376371837086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>887.4401889091791</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>737.3235494968434</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>589.4104559144503</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5205084165399</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>275.3244091314198</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>133.6125779736179</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612593</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434716</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155647</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>550.921708803229</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>403.0086152208358</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015259</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601771</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282443</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.454437538929881</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878364</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>140.4465591824917</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>66.73277020259125</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.89198472948087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>24.58839950885071</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.8770068749577</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.04708356698244</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.139866510289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>72.44497470121472</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.86788054217598</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.1398665102886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778542</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="J2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289268</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.368461719625</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171965</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719622</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719731</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719659</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171963</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601865.8266846545</v>
+        <v>-601865.8266846542</v>
       </c>
       <c r="C6" t="n">
-        <v>512885.9568912655</v>
+        <v>512885.9568912657</v>
       </c>
       <c r="D6" t="n">
-        <v>512885.9568912658</v>
+        <v>512885.9568912657</v>
       </c>
       <c r="E6" t="n">
-        <v>110316.5998108323</v>
+        <v>110281.8618853962</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.0414353788</v>
+        <v>617767.3035099426</v>
       </c>
       <c r="G6" t="n">
-        <v>617802.0414353785</v>
+        <v>617767.3035099435</v>
       </c>
       <c r="H6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099428</v>
       </c>
       <c r="I6" t="n">
-        <v>617802.0414353784</v>
+        <v>617767.3035099428</v>
       </c>
       <c r="J6" t="n">
-        <v>450196.8636253959</v>
+        <v>450162.1256999602</v>
       </c>
       <c r="K6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.303509943</v>
       </c>
       <c r="L6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099426</v>
       </c>
       <c r="M6" t="n">
-        <v>485194.7477064517</v>
+        <v>485160.0097810159</v>
       </c>
       <c r="N6" t="n">
-        <v>617802.0414353785</v>
+        <v>617767.3035099426</v>
       </c>
       <c r="O6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099431</v>
       </c>
       <c r="P6" t="n">
-        <v>617802.0414353784</v>
+        <v>617767.3035099428</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>153.173067670778</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>83.74443108568937</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014636</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>296.0223560287522</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902551</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.9065012317242</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.8231930236463</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>183.7907424631436</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>170.9258179227459</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,10 +28153,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.496150991986756e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.157518219205768e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-9.848122317634988e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-8.003898693245978e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206121</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,22 +32072,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>353.130074847795</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>308.1572428165614</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>500.7380235181008</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,22 +33029,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>152.0754244981388</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>300.5543663814921</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>556.5325452335035</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>366.9313322820406</v>
+      </c>
+      <c r="N3" t="n">
+        <v>615.5326193530511</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="M3" t="n">
-        <v>553.5225306839449</v>
-      </c>
-      <c r="N3" t="n">
-        <v>391.197099592874</v>
-      </c>
-      <c r="O3" t="n">
-        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660945</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>341.8791195350528</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839592</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394538</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317105</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>219.1556674334648</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>165.5609983721169</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>366.7636161037705</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>6.39592053417488</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>347.2162484813126</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>161.9999866016179</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>425.1908331501702</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
